--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/GEORGIA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/GEORGIA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1528"/>
+  <dimension ref="A1:D1522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C14">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C32">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C35">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C37">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C42">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C46">
@@ -1330,7 +1330,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C73">
@@ -1408,7 +1408,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C79">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C89">
@@ -1551,7 +1551,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C90">
@@ -1985,7 +1985,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C123">
@@ -2089,7 +2089,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C131">
@@ -2115,7 +2115,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C133">
@@ -2354,7 +2354,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C151">
@@ -2489,7 +2489,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C161">
@@ -2515,7 +2515,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2566,13 +2566,13 @@
         <v>19</v>
       </c>
       <c r="D166">
-        <v>0.0009269649216958579</v>
+        <v>0.000926964921695858</v>
       </c>
     </row>
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C167">
@@ -2753,7 +2753,7 @@
         <v>19</v>
       </c>
       <c r="D180">
-        <v>0.0009269649216958579</v>
+        <v>0.000926964921695858</v>
       </c>
     </row>
     <row r="181">
@@ -2772,7 +2772,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C182">
@@ -2928,7 +2928,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C194">
@@ -2980,7 +2980,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C198">
@@ -3032,7 +3032,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C202">
@@ -3045,7 +3045,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C203">
@@ -3149,12 +3149,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C211">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,14 +3206,14 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C215">
         <v>20</v>
       </c>
       <c r="D215">
-        <v>0.0009757525491535347</v>
+        <v>0.0009757525491535348</v>
       </c>
     </row>
     <row r="216">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C219">
@@ -3278,7 +3278,7 @@
         <v>19</v>
       </c>
       <c r="D220">
-        <v>0.0009269649216958579</v>
+        <v>0.000926964921695858</v>
       </c>
     </row>
     <row r="221">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C226">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C232">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C238">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C239">
@@ -3687,7 +3687,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C252">
@@ -3759,7 +3759,7 @@
         <v>19</v>
       </c>
       <c r="D257">
-        <v>0.0009269649216958579</v>
+        <v>0.000926964921695858</v>
       </c>
     </row>
     <row r="258">
@@ -3817,7 +3817,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C262">
@@ -3843,7 +3843,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C264">
@@ -3869,7 +3869,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C266">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C275">
@@ -4116,7 +4116,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C285">
@@ -4181,7 +4181,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C290">
@@ -4194,7 +4194,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C291">
@@ -4207,7 +4207,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C292">
@@ -4220,7 +4220,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C293">
@@ -4381,7 +4381,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C305">
@@ -4394,7 +4394,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C306">
@@ -4498,7 +4498,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C314">
@@ -4518,7 +4518,7 @@
         <v>19</v>
       </c>
       <c r="D315">
-        <v>0.0009269649216958579</v>
+        <v>0.000926964921695858</v>
       </c>
     </row>
     <row r="316">
@@ -4550,7 +4550,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C318">
@@ -4654,7 +4654,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C326">
@@ -4706,7 +4706,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C330">
@@ -4732,7 +4732,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C332">
@@ -4758,7 +4758,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C334">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C336">
@@ -4810,7 +4810,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C338">
@@ -4843,7 +4843,7 @@
         <v>19</v>
       </c>
       <c r="D340">
-        <v>0.0009269649216958579</v>
+        <v>0.000926964921695858</v>
       </c>
     </row>
     <row r="341">
@@ -4875,7 +4875,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C343">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C349">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C351">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C352">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C355">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C357">
@@ -5075,7 +5075,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C358">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C361">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C362">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C363">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C364">
@@ -5218,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C369">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C370">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C374">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C375">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C380">
@@ -5374,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C381">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C383">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C384">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C386">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C389">
@@ -5647,7 +5647,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C402">
@@ -5673,7 +5673,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C404">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C406">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C407">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C411">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C412">
@@ -5932,13 +5932,13 @@
         <v>20</v>
       </c>
       <c r="D423">
-        <v>0.0009757525491535347</v>
+        <v>0.0009757525491535348</v>
       </c>
     </row>
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C424">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C429">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C430">
@@ -6094,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C436">
@@ -6159,7 +6159,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C441">
@@ -6211,7 +6211,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C445">
@@ -6250,7 +6250,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C448">
@@ -6328,7 +6328,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C454">
@@ -6341,7 +6341,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C455">
@@ -6354,7 +6354,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C456">
@@ -6367,7 +6367,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C457">
@@ -6393,7 +6393,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C459">
@@ -6406,7 +6406,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C460">
@@ -6419,7 +6419,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C461">
@@ -6458,7 +6458,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C464">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C469">
@@ -6536,7 +6536,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C470">
@@ -6588,7 +6588,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C474">
@@ -6614,7 +6614,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C476">
@@ -6627,7 +6627,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C477">
@@ -6640,7 +6640,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C478">
@@ -6744,20 +6744,20 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C486">
         <v>19</v>
       </c>
       <c r="D486">
-        <v>0.0009269649216958579</v>
+        <v>0.000926964921695858</v>
       </c>
     </row>
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C487">
@@ -6770,7 +6770,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C488">
@@ -6809,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C491">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C496">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C502">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C504">
@@ -7152,7 +7152,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C517">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C522">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C523">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C527">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C529">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C536">
@@ -7464,7 +7464,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C541">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C542">
@@ -7503,7 +7503,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C544">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C546">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C547">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C548">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C549">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C551">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C557">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C558">
@@ -7724,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C561">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C562">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C569">
@@ -7841,7 +7841,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C570">
@@ -7854,7 +7854,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C571">
@@ -7893,7 +7893,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C574">
@@ -7906,7 +7906,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C575">
@@ -7932,7 +7932,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C577">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C578">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C579">
@@ -8152,7 +8152,7 @@
         <v>19</v>
       </c>
       <c r="D593">
-        <v>0.0009269649216958579</v>
+        <v>0.000926964921695858</v>
       </c>
     </row>
     <row r="594">
@@ -8262,7 +8262,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C602">
@@ -8288,7 +8288,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C604">
@@ -9107,7 +9107,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C667">
@@ -9296,7 +9296,7 @@
         <v>19</v>
       </c>
       <c r="D681">
-        <v>0.0009269649216958579</v>
+        <v>0.000926964921695858</v>
       </c>
     </row>
     <row r="682">
@@ -9463,7 +9463,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C694">
@@ -9502,7 +9502,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C697">
@@ -9567,7 +9567,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C702">
@@ -9593,7 +9593,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C704">
@@ -9741,7 +9741,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C715">
@@ -9780,7 +9780,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C718">
@@ -9871,7 +9871,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C725">
@@ -10097,7 +10097,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C742">
@@ -10110,7 +10110,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C743">
@@ -10149,7 +10149,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C746">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C750">
@@ -10258,7 +10258,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C754">
@@ -10297,7 +10297,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C757">
@@ -10317,13 +10317,13 @@
         <v>20</v>
       </c>
       <c r="D758">
-        <v>0.0009757525491535347</v>
+        <v>0.0009757525491535348</v>
       </c>
     </row>
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C759">
@@ -10362,7 +10362,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C762">
@@ -10401,7 +10401,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C765">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C766">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C767">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C768">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C769">
@@ -10466,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C770">
@@ -10557,7 +10557,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C777">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C778">
@@ -10609,7 +10609,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C781">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C784">
@@ -10661,7 +10661,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C785">
@@ -10674,7 +10674,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C786">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C787">
@@ -10713,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C789">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C795">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C808">
@@ -10986,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C810">
@@ -11051,7 +11051,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C815">
@@ -11259,7 +11259,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C831">
@@ -11389,7 +11389,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C841">
@@ -11857,7 +11857,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C877">
@@ -11883,7 +11883,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C879">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C889">
@@ -12052,7 +12052,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C892">
@@ -12195,7 +12195,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C903">
@@ -12611,7 +12611,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C935">
@@ -13066,7 +13066,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C970">
@@ -13222,7 +13222,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C982">
@@ -13248,7 +13248,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C984">
@@ -13261,7 +13261,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C985">
@@ -13274,7 +13274,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C986">
@@ -13287,7 +13287,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C987">
@@ -13300,7 +13300,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C988">
@@ -13326,7 +13326,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C990">
@@ -13339,7 +13339,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C991">
@@ -13352,7 +13352,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C992">
@@ -13365,7 +13365,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C993">
@@ -13391,7 +13391,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C995">
@@ -13404,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C996">
@@ -13430,7 +13430,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C998">
@@ -13617,7 +13617,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1012">
@@ -13656,7 +13656,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1015">
@@ -13851,7 +13851,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1030">
@@ -13864,7 +13864,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1031">
@@ -14007,7 +14007,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1042">
@@ -14085,7 +14085,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1048">
@@ -14189,7 +14189,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1056">
@@ -14280,7 +14280,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1063">
@@ -14527,7 +14527,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1082">
@@ -14540,7 +14540,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1083">
@@ -14599,7 +14599,7 @@
         <v>19</v>
       </c>
       <c r="D1087">
-        <v>0.0009269649216958579</v>
+        <v>0.000926964921695858</v>
       </c>
     </row>
     <row r="1088">
@@ -14644,7 +14644,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1091">
@@ -14683,7 +14683,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1094">
@@ -14696,7 +14696,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1095">
@@ -14709,7 +14709,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1096">
@@ -14774,7 +14774,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1101">
@@ -15021,7 +15021,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1120">
@@ -15130,7 +15130,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1128">
@@ -15156,7 +15156,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1130">
@@ -15221,7 +15221,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1135">
@@ -15234,7 +15234,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1136">
@@ -15273,7 +15273,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1139">
@@ -15312,7 +15312,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1142">
@@ -15415,7 +15415,7 @@
         <v>20</v>
       </c>
       <c r="D1149">
-        <v>0.0009757525491535347</v>
+        <v>0.0009757525491535348</v>
       </c>
     </row>
     <row r="1150">
@@ -15465,7 +15465,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1153">
@@ -15478,7 +15478,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1154">
@@ -15556,7 +15556,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1160">
@@ -15641,7 +15641,7 @@
         <v>20</v>
       </c>
       <c r="D1166">
-        <v>0.0009757525491535347</v>
+        <v>0.0009757525491535348</v>
       </c>
     </row>
     <row r="1167">
@@ -15686,7 +15686,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1170">
@@ -15751,7 +15751,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1175">
@@ -15829,7 +15829,7 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1181">
@@ -15855,7 +15855,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1183">
@@ -15959,7 +15959,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1191">
@@ -16011,7 +16011,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1195">
@@ -16024,7 +16024,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1196">
@@ -16037,7 +16037,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1197">
@@ -16050,7 +16050,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1198">
@@ -16063,7 +16063,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1199">
@@ -16076,7 +16076,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1200">
@@ -16496,7 +16496,7 @@
         <v>19</v>
       </c>
       <c r="D1231">
-        <v>0.0009269649216958579</v>
+        <v>0.000926964921695858</v>
       </c>
     </row>
     <row r="1232">
@@ -16611,7 +16611,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1240">
@@ -16922,7 +16922,7 @@
         <v>20</v>
       </c>
       <c r="D1263">
-        <v>0.0009757525491535347</v>
+        <v>0.0009757525491535348</v>
       </c>
     </row>
     <row r="1264">
@@ -17006,7 +17006,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1270">
@@ -17039,7 +17039,7 @@
         <v>20</v>
       </c>
       <c r="D1272">
-        <v>0.0009757525491535347</v>
+        <v>0.0009757525491535348</v>
       </c>
     </row>
     <row r="1273">
@@ -17206,7 +17206,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1285">
@@ -17219,7 +17219,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1286">
@@ -17232,7 +17232,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1287">
@@ -17258,7 +17258,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1289">
@@ -17271,7 +17271,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1290">
@@ -17284,7 +17284,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1291">
@@ -17349,7 +17349,7 @@
     <row r="1296">
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1296">
@@ -17517,7 +17517,7 @@
         <v>19</v>
       </c>
       <c r="D1308">
-        <v>0.0009269649216958579</v>
+        <v>0.000926964921695858</v>
       </c>
     </row>
     <row r="1309">
@@ -17562,7 +17562,7 @@
     <row r="1312">
       <c r="B1312" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1312">
@@ -17601,7 +17601,7 @@
     <row r="1315">
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1315">
@@ -17705,7 +17705,7 @@
     <row r="1323">
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1323">
@@ -17770,7 +17770,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1328">
@@ -17796,7 +17796,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1330">
@@ -18017,7 +18017,7 @@
     <row r="1347">
       <c r="B1347" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1347">
@@ -18030,7 +18030,7 @@
     <row r="1348">
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1348">
@@ -18238,7 +18238,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1364">
@@ -18251,7 +18251,7 @@
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1365">
@@ -18290,7 +18290,7 @@
     <row r="1368">
       <c r="B1368" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1368">
@@ -18303,7 +18303,7 @@
     <row r="1369">
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1369">
@@ -18316,7 +18316,7 @@
     <row r="1370">
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1370">
@@ -18472,7 +18472,7 @@
     <row r="1382">
       <c r="B1382" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1382">
@@ -18524,7 +18524,7 @@
     <row r="1386">
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1386">
@@ -18537,7 +18537,7 @@
     <row r="1387">
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1387">
@@ -18576,7 +18576,7 @@
     <row r="1390">
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1390">
@@ -18615,7 +18615,7 @@
     <row r="1393">
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1393">
@@ -18680,7 +18680,7 @@
     <row r="1398">
       <c r="B1398" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1398">
@@ -18771,7 +18771,7 @@
     <row r="1405">
       <c r="B1405" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1405">
@@ -18810,7 +18810,7 @@
     <row r="1408">
       <c r="B1408" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1408">
@@ -18862,14 +18862,14 @@
     <row r="1412">
       <c r="B1412" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1412">
         <v>19</v>
       </c>
       <c r="D1412">
-        <v>0.0009269649216958579</v>
+        <v>0.000926964921695858</v>
       </c>
     </row>
     <row r="1413">
@@ -18979,7 +18979,7 @@
     <row r="1421">
       <c r="B1421" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1421">
@@ -19031,7 +19031,7 @@
     <row r="1425">
       <c r="B1425" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1425">
@@ -19096,7 +19096,7 @@
     <row r="1430">
       <c r="B1430" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1430">
@@ -19343,7 +19343,7 @@
     <row r="1449">
       <c r="B1449" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1449">
@@ -19512,7 +19512,7 @@
     <row r="1462">
       <c r="B1462" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1462">
@@ -19629,7 +19629,7 @@
     <row r="1471">
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1471">
@@ -19821,7 +19821,7 @@
     <row r="1485">
       <c r="B1485" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1485">
@@ -19925,7 +19925,7 @@
     <row r="1493">
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1493">
@@ -20029,7 +20029,7 @@
     <row r="1501">
       <c r="B1501" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1501">
@@ -20049,7 +20049,7 @@
         <v>19</v>
       </c>
       <c r="D1502">
-        <v>0.0009269649216958579</v>
+        <v>0.000926964921695858</v>
       </c>
     </row>
     <row r="1503">
@@ -20159,7 +20159,7 @@
     <row r="1511">
       <c r="B1511" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1511">
@@ -20172,7 +20172,7 @@
     <row r="1512">
       <c r="B1512" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1512">
@@ -20185,7 +20185,7 @@
     <row r="1513">
       <c r="B1513" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1513">
@@ -20211,7 +20211,7 @@
     <row r="1515">
       <c r="B1515" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1515">
@@ -20244,7 +20244,7 @@
         <v>19</v>
       </c>
       <c r="D1517">
-        <v>0.0009269649216958579</v>
+        <v>0.000926964921695858</v>
       </c>
     </row>
     <row r="1518">
@@ -20283,7 +20283,7 @@
         <v>20</v>
       </c>
       <c r="D1520">
-        <v>0.0009757525491535347</v>
+        <v>0.0009757525491535348</v>
       </c>
     </row>
     <row r="1521">
@@ -20310,41 +20310,6 @@
       </c>
       <c r="D1522">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
